--- a/data/income_statement/2digits/total/56_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/56_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>56-Food and beverage service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>56-Food and beverage service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,113 +841,128 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11708321.54261</v>
+        <v>11708706.02754</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>14232993.5837</v>
+        <v>14233220.73556</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>17736924.99644</v>
+        <v>17737872.30881</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20987394.56617</v>
+        <v>21004601.55109</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>24490075.21569001</v>
+        <v>24535590.04066</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>29510636.65542</v>
+        <v>29623176.5716</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>32966059.58244</v>
+        <v>35147907.68469001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>40308537.10933</v>
+        <v>40571300.57082</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>49934348.49495</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>59363779.58373</v>
+        <v>59618320.43819</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>73350002.17209999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>74716928.80240001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>65168108.451</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>11169458.31403</v>
+        <v>11169838.33286</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>13557579.98258</v>
+        <v>13557807.13444</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>16861096.54944</v>
+        <v>16862043.86181</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>19920674.12079</v>
+        <v>19937450.88265</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23252705.69343</v>
+        <v>23297505.65145</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28067515.95984</v>
+        <v>28168433.33077</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>31161039.55755</v>
+        <v>33298891.17776</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>38250178.76885</v>
+        <v>38511009.71483999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>47495265.75476</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>56584755.58805</v>
+        <v>56828746.99028</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>69516426.63853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>70855194.68239999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>62237684.495</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>343589.8978200001</v>
+        <v>343589.89782</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>429828.86736</v>
+        <v>429828.8673600001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>537952.5753800001</v>
+        <v>537952.5753799998</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>612054.6166800001</v>
+        <v>612161.4288499999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>713730.39146</v>
+        <v>713733.4384099999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>868550.72851</v>
+        <v>878063.5668400001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1082899.83735</v>
+        <v>1103089.8561</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1081417.52081</v>
@@ -1055,133 +971,153 @@
         <v>1276423.31362</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1552994.43465</v>
+        <v>1558628.00275</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2096514.75516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2093892.86677</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1268660.635</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>195273.33076</v>
+        <v>195277.79686</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>245584.73376</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>337875.8716199999</v>
+        <v>337875.87162</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>454665.8287000001</v>
+        <v>454989.23959</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>523639.1307999999</v>
+        <v>524350.9508</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>574569.96707</v>
+        <v>576679.67399</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>722120.18754</v>
+        <v>745926.6508300001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>976940.8196700001</v>
+        <v>978873.33517</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1162659.42657</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1226029.56103</v>
+        <v>1230945.44516</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1737060.77841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1767841.25323</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1661763.321</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>81535.97901000002</v>
+        <v>81535.97901</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>85811.47477</v>
+        <v>85811.47477000002</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>117148.7154</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>151011.44658</v>
+        <v>151021.56733</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>129101.76729</v>
+        <v>129147.23646</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>175077.44647</v>
+        <v>176514.96109</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>204444.93984</v>
+        <v>230046.10988</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>301292.3596199999</v>
+        <v>301569.92785</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>354407.69192</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>356968.75354</v>
+        <v>357097.5716500001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>570666.0933599999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>572829.30758</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>792109.022</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>39369.04989</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>46663.51642000001</v>
+        <v>46663.51642</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>63654.85469000001</v>
+        <v>63654.85469</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>77610.08415</v>
+        <v>77620.20490000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>91997.65433</v>
+        <v>92007.80958000002</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>121837.76807</v>
+        <v>123250.74213</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>158679.49568</v>
+        <v>165933.18616</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>228330.70151</v>
+        <v>228504.79696</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>244939.57541</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>224556.87503</v>
+        <v>224648.35875</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>344455.7536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>345657.54028</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>557588.443</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>38445.18022000001</v>
@@ -1196,31 +1132,36 @@
         <v>63972.66258999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>26676.12291</v>
+        <v>26711.43683</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>43619.75285</v>
+        <v>43644.29341</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31102.03504</v>
+        <v>49405.10647</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>49508.18294999999</v>
+        <v>49611.58601</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>92141.31542999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>110143.84425</v>
+        <v>110177.23938</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>199912.10468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>200548.60168</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>215660.478</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3721.7489</v>
@@ -1229,10 +1170,10 @@
         <v>6804.82314</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7441.28185</v>
+        <v>7441.281849999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>9428.699839999997</v>
+        <v>9428.699839999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>10427.99005</v>
@@ -1241,220 +1182,250 @@
         <v>9619.925549999998</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>14663.40912</v>
+        <v>14707.81725</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>23453.47516</v>
+        <v>23453.54487999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>17326.80108</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>22268.03426</v>
+        <v>22271.97352</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>26298.23508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>26623.16562</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>18860.101</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11626785.5636</v>
+        <v>11627170.04853</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>14147182.10893</v>
+        <v>14147409.26079</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>17619776.28104</v>
+        <v>17620723.59341</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20836383.11959</v>
+        <v>20853579.98376</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>24360973.4484</v>
+        <v>24406442.8042</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>29335559.20895</v>
+        <v>29446661.61051</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>32761614.6426</v>
+        <v>34917861.57481</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>40007244.74970999</v>
+        <v>40269730.64297</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>49579940.80303001</v>
+        <v>49579940.80303</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>59006810.83019</v>
+        <v>59261222.86653999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>72779336.07874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>74144099.49482001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>64375999.429</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9255747.072880004</v>
+        <v>9255984.4761</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>11321160.96501</v>
+        <v>11321385.38045</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>14162731.15782</v>
+        <v>14163643.28361</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>16623548.63992</v>
+        <v>16637198.72534</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>19554117.13874</v>
+        <v>19579311.18973</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>23599288.30407</v>
+        <v>23672564.7257</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>26639011.2125</v>
+        <v>28050664.68657999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>32253939.2827</v>
+        <v>32500246.47124</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>39761885.17468999</v>
+        <v>39761885.17469</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>47594243.50799999</v>
+        <v>47805129.03798</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>58468684.25256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>59594585.84343001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>53291569.311</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3009106.32474</v>
+        <v>3009117.62584</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3600403.552949999</v>
+        <v>3600533.35271</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4486374.847429999</v>
+        <v>4486481.67129</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5391064.821</v>
+        <v>5398583.48217</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6430220.078190001</v>
+        <v>6441097.371650001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8102688.65103</v>
+        <v>8121063.810860001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9048069.248299999</v>
+        <v>9812697.33615</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10771564.24692</v>
+        <v>10787878.51802</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>13002783.99286</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15805212.05733</v>
+        <v>15847190.09005</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18929701.10862001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19212362.8414</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16523198.015</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1739961.07367</v>
+        <v>1740007.71178</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>2044399.98444</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2478258.84748</v>
+        <v>2478840.31638</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2924467.255400001</v>
+        <v>2926341.10165</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3287717.34081</v>
+        <v>3292875.98713</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3769166.71672</v>
+        <v>3797013.25885</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4307319.8874</v>
+        <v>4629850.582250001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5462820.99662</v>
+        <v>5467262.0661</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7658539.595280001</v>
+        <v>7658539.595279999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>8225788.3576</v>
+        <v>8302775.76618</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>10847285.22716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11134346.37969</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>12181072.944</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4480801.479499999</v>
+        <v>4480980.943510001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5657622.254799999</v>
+        <v>5657716.87048</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>7180703.479810001</v>
+        <v>7180927.31284</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8281641.805869999</v>
+        <v>8285899.383869999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9790751.226</v>
+        <v>9799909.33721</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11651910.30814</v>
+        <v>11678001.00688</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>13150196.07237</v>
+        <v>13474494.38593</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15872060.89107</v>
+        <v>16096724.19172</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>18979137.37940999</v>
+        <v>18979137.37941</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>23444888.25215</v>
+        <v>23535233.22574</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>28535979.99709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>29089140.6715</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>24366710.456</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>25878.19497</v>
@@ -1472,106 +1443,121 @@
         <v>45428.49374</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>75522.62818000001</v>
+        <v>76486.64910999998</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>133426.00443</v>
+        <v>133622.38225</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>147493.14809</v>
+        <v>148381.6954</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>121424.20714</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>118354.84092</v>
+        <v>119929.95601</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>155717.91969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>158735.95084</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>220587.896</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2371038.49072</v>
+        <v>2371185.57243</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2826021.14392</v>
+        <v>2826023.88034</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3457045.12322</v>
+        <v>3457080.3098</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4212834.47967</v>
+        <v>4216381.25842</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4806856.30966</v>
+        <v>4827131.614469999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5736270.90488</v>
+        <v>5774096.88481</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6122603.430100001</v>
+        <v>6867196.88823</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7753305.467009999</v>
+        <v>7769484.171730001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>9818055.628339998</v>
+        <v>9818055.62834</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>11412567.32219</v>
+        <v>11456093.82856</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14310651.82618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14549513.65139</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11084430.118</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2227907.26735</v>
+        <v>2228127.94988</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2620104.39013</v>
+        <v>2620116.21162</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3243635.14804</v>
+        <v>3243648.07166</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4025687.610860001</v>
+        <v>4028431.27355</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4721415.339609999</v>
+        <v>4743555.32623</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5723353.46811</v>
+        <v>5765192.345989999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6163071.5227</v>
+        <v>6888686.684030001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8005961.95392</v>
+        <v>8035412.3733</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>9419822.68695</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>11034325.65944</v>
+        <v>11104420.35909</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>13288643.41779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13571322.51417</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12088991.872</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4330.83609</v>
@@ -1580,7 +1566,7 @@
         <v>2930.97675</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2930.710470000001</v>
+        <v>2930.71047</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>5991.35885</v>
@@ -1589,187 +1575,212 @@
         <v>3923.72588</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6970.81513</v>
+        <v>7058.76114</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3781.86106</v>
+        <v>3823.40106</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8483.528340000001</v>
+        <v>8489.22991</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>10854.60872</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>9190.213119999999</v>
+        <v>9488.733970000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>9781.44572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10115.91437</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>12069.335</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>527175.02173</v>
+        <v>527187.25798</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>632376.8308900001</v>
+        <v>632376.83089</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>827014.08043</v>
+        <v>827014.0804300001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1087079.4191</v>
+        <v>1087271.77413</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1266151.26668</v>
+        <v>1275720.46417</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1664949.5375</v>
+        <v>1668813.10429</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1620121.9928</v>
+        <v>2021901.0789</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2530247.05786</v>
+        <v>2532069.33818</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3165403.89288</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3840381.21415</v>
+        <v>3850917.950209999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4727845.302679999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4772983.47303</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4076394.621</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1696401.40953</v>
+        <v>1696609.85581</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1984796.58249</v>
+        <v>1984808.40398</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2413690.35714</v>
+        <v>2413703.28076</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2932616.83291</v>
+        <v>2935168.14057</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3451340.34705</v>
+        <v>3463911.13618</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4051433.11548</v>
+        <v>4089320.480560001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4539167.668839999</v>
+        <v>4862962.20407</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5467231.36772</v>
+        <v>5494853.80521</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>6243564.18535</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7184754.232170001</v>
+        <v>7244013.67491</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8551016.669389999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8788223.126770001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8000527.916</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>143131.2233700001</v>
+        <v>143057.62255</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>205916.75379</v>
+        <v>205907.66872</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>213409.97518</v>
+        <v>213432.23814</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>187146.86881</v>
+        <v>187949.98487</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>85440.97004999999</v>
+        <v>83576.28823999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>12917.43676999996</v>
+        <v>8904.538819999963</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-40468.09259999995</v>
+        <v>-21489.79579999998</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-252656.48691</v>
+        <v>-265928.20157</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>398232.9413899999</v>
+        <v>398232.94139</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>378241.6627500001</v>
+        <v>351673.4694699999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1022008.40839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>978191.13722</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1004561.754</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>248996.49347</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>311508.3451299999</v>
+        <v>311508.34513</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>563052.8423599999</v>
+        <v>563052.84236</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>609071.51013</v>
+        <v>609154.41489</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>836778.3185299999</v>
+        <v>837112.3254600001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1025779.21133</v>
+        <v>1032591.57472</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>989401.9661699999</v>
+        <v>1426158.55905</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1658522.43883</v>
+        <v>1674530.03723</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2325681.06705</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1990310.82135</v>
+        <v>1993502.51996</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1697551.45312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1707604.16044</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1916191.916</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6545.002310000001</v>
+        <v>6545.00231</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>19878.92917</v>
@@ -1778,19 +1789,19 @@
         <v>45632.30482</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>42894.54238000001</v>
+        <v>42894.54237999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>60388.71284</v>
+        <v>60388.71283999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>42967.01244999999</v>
+        <v>42967.01245</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>19303.81197</v>
+        <v>52281.44166</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>54659.14789</v>
+        <v>54659.14788999999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>127852.93955</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>174408.11136</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>54653.468</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1541.63667</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>3690.181309999999</v>
+        <v>3690.18131</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>3784.7394</v>
@@ -1826,10 +1842,10 @@
         <v>33143.1273</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>59627.78791000001</v>
+        <v>59627.78791</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>49132.63890000001</v>
+        <v>49132.6389</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>112877.18711</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>23152.65803</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>63507.53</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>45506.55905</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>41734.30631</v>
+        <v>41734.30630999999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>182932.23358</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>218614.72028</v>
+        <v>218668.57662</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>196944.04295</v>
+        <v>197027.1657</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>283852.305</v>
+        <v>284250.91493</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>117610.00708</v>
+        <v>344013.2011599999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>415694.4399</v>
+        <v>416829.3622500001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>566838.00511</v>
+        <v>566838.0051100001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>264798.66565</v>
+        <v>265348.2443500001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>327996.3789599999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>329800.9268899999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>278545.827</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2742.28853</v>
@@ -1895,37 +1921,42 @@
         <v>6253.77325</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3618.437829999999</v>
+        <v>3620.36721</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>4380.30956</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4982.776190000001</v>
+        <v>4982.77619</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>18444.67706</v>
+        <v>18553.46044</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>5943.98244</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6079.605590000001</v>
+        <v>6079.60559</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>8570.001550000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7731.018800000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7794.3061</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7122.928</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6570.880530000001</v>
+        <v>6570.88053</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>5273.178269999999</v>
@@ -1943,31 +1974,36 @@
         <v>3714.24841</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3156.30251</v>
+        <v>3187.02589</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12251.74466</v>
+        <v>12261.06427</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>16550.54406</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17822.28838</v>
+        <v>17822.58538</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>25953.93199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>26021.48464999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>19166.084</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1427.94217</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7732.150739999999</v>
+        <v>7732.150739999998</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>2615.77561</v>
@@ -1976,16 +2012,16 @@
         <v>3187.324059999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>64750.45372999999</v>
+        <v>64758.44389999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2606.71307</v>
+        <v>2616.5388</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>62033.13135999999</v>
+        <v>62054.09059000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>14913.59604</v>
+        <v>14916.76495</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>10969.44912</v>
@@ -1994,52 +2030,62 @@
         <v>12457.29972</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>14691.41474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>14691.42364</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>20310.575</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>70560.83888</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>69685.97163</v>
+        <v>69685.97163000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>102573.65599</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>87564.1943</v>
+        <v>87597.76068999998</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>215274.1676</v>
+        <v>215274.31658</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>388774.0891899999</v>
+        <v>388850.8749599999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>439479.38263</v>
+        <v>581755.78024</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>742040.26165</v>
+        <v>754869.9213200001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1122922.08155</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1171345.3926</v>
+        <v>1173147.66985</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>504811.85514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>506925.83532</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>907398.139</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>215.27609</v>
@@ -2057,13 +2103,13 @@
         <v>350.91589</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>635.3443600000001</v>
+        <v>635.3443599999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>401.31054</v>
+        <v>556.1341</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>232.4648299999999</v>
+        <v>232.46483</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>625.08178</v>
@@ -2072,13 +2118,18 @@
         <v>1785.56446</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2755.9545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2755.954499999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2846.154</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>209.28678</v>
@@ -2090,13 +2141,13 @@
         <v>232.04908</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>383.1285100000001</v>
+        <v>383.12851</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>652.5863099999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>984.7931699999999</v>
+        <v>984.79317</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>401.80275</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>141.84153</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>159.313</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>113676.78246</v>
@@ -2129,34 +2185,39 @@
         <v>213043.63616</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>246328.02908</v>
+        <v>246321.58173</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>280659.50716</v>
+        <v>280902.25219</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>264118.80219</v>
+        <v>270445.94415</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>268943.7523599999</v>
+        <v>303727.83431</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>363129.65222</v>
+        <v>365160.18008</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>360360.2326200001</v>
+        <v>360360.23262</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>417024.1524300001</v>
+        <v>417863.69809</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>615908.28807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>621911.6184200001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>562481.898</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>152943.37206</v>
@@ -2168,34 +2229,39 @@
         <v>411151.12952</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>385834.86305</v>
+        <v>385889.7649</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>677459.84425</v>
+        <v>677712.6829799999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>879461.9852499999</v>
+        <v>883078.6398699998</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1002561.23782</v>
+        <v>1358186.52807</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1459977.72131</v>
+        <v>1476970.27689</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>2014775.48393</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1602721.10524</v>
+        <v>1603769.51022</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1084924.27917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1092148.8913</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1433861.578</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>33503.3811</v>
@@ -2204,37 +2270,42 @@
         <v>60251.15749</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>75168.88122999998</v>
+        <v>75168.88123</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>83366.87497999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>93291.16617</v>
+        <v>93543.0975</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>113600.45956</v>
+        <v>113751.66171</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>123193.48415</v>
+        <v>136073.53959</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>132244.37861</v>
+        <v>132370.46135</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>161422.47911</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>206294.80147</v>
+        <v>206430.54543</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>261207.07223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>262261.71616</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>206188.521</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17898.82463</v>
@@ -2252,28 +2323,33 @@
         <v>20053.17127</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>20914.05988</v>
+        <v>21247.55987999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>24963.33714</v>
+        <v>28554.02375</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>33061.6699</v>
+        <v>33900.68695999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>31926.65073</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>41124.93189</v>
+        <v>41124.93188999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>62486.6039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>62531.25022</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>125625.637</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1520.47076</v>
@@ -2285,16 +2361,16 @@
         <v>20278.69421</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6123.058929999998</v>
+        <v>6123.058930000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>4047.5509</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3510.280599999999</v>
+        <v>3510.424109999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>14195.77059</v>
+        <v>14216.12424</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1625.60434</v>
@@ -2306,13 +2382,18 @@
         <v>21397.14339</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>587.9765299999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>587.97653</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4990.743</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>65530.88972</v>
@@ -2324,37 +2405,42 @@
         <v>106971.54344</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>62562.28627</v>
+        <v>62617.17203</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>350048.38903</v>
+        <v>350050.0854800001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>472414.4506200001</v>
+        <v>472499.9543000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>754866.2046699999</v>
+        <v>888022.27608</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>943327.09627</v>
+        <v>959189.3784200001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1367027.62717</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1173017.41042</v>
+        <v>1173796.08649</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>538146.85586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>540550.54026</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>882328.748</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>322.6396999999999</v>
+        <v>322.6397</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>22.67998</v>
@@ -2363,7 +2449,7 @@
         <v>382.05805</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>742.2808299999999</v>
+        <v>742.2808300000002</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>288.72991</v>
@@ -2372,7 +2458,7 @@
         <v>420.775</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>745.4828999999999</v>
+        <v>792.99182</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>2011.40721</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1600.44499</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1625.973</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1527.58553</v>
@@ -2411,7 +2502,7 @@
         <v>216.31058</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>369.6333299999999</v>
+        <v>369.63333</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>180.22973</v>
@@ -2425,92 +2516,107 @@
       <c r="M42" s="48" t="n">
         <v>4487.9263</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1286.372</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>32639.58062</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>46516.95805000001</v>
+        <v>46516.95804999999</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>191083.79563</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>206481.72053</v>
+        <v>206481.73662</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>209417.58525</v>
+        <v>209416.7962</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>268385.64901</v>
+        <v>271431.95429</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>84227.32504</v>
+        <v>290157.93926</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>347527.33525</v>
+        <v>347692.50888</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>453542.5217</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>158938.95266</v>
+        <v>159072.93761</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>216407.39936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>220129.03684</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>211815.584</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>146209.89251</v>
+        <v>146211.15679</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>146690.50874</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>198902.14243</v>
+        <v>198902.1424299999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>257914.22583</v>
+        <v>258088.48683</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>323420.47577</v>
+        <v>323859.85474</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>435609.7978000001</v>
+        <v>436201.48706</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>540999.06892</v>
+        <v>578900.58669</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>654698.9691799998</v>
+        <v>657631.54508</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>860417.82108</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1050592.19326</v>
+        <v>1051309.93274</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1228354.76858</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1240582.23645</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1237812.188</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>134548.73833</v>
+        <v>134550.00261</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>134625.95923</v>
@@ -2519,34 +2625,39 @@
         <v>171914.29138</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>228804.55383</v>
+        <v>228978.81483</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>238648.45317</v>
+        <v>239080.58925</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>396008.82774</v>
+        <v>396600.5170000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>504746.27428</v>
+        <v>531873.54712</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>597554.20721</v>
+        <v>600303.3591999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>792485.2338200001</v>
+        <v>792485.23382</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>990514.6214300001</v>
+        <v>991232.3609099999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1110877.45151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1122248.0655</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1008092.318</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11661.15418</v>
@@ -2561,226 +2672,256 @@
         <v>29109.672</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>84772.0226</v>
+        <v>84779.26548999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>39600.97005999999</v>
+        <v>39600.97006</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>36252.79464</v>
+        <v>47027.03957</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>57144.76196999999</v>
+        <v>57328.18588000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>67932.58725999999</v>
+        <v>67932.58726</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>60077.57183</v>
+        <v>60077.57183000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>117477.31707</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>118334.17095</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>229719.87</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>92974.45226999998</v>
+        <v>92899.58717</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>183579.46771</v>
+        <v>183570.38264</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>166409.54559</v>
+        <v>166431.80855</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>152469.29006</v>
+        <v>153126.14803</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-78661.03144000002</v>
+        <v>-80883.92401999996</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-276375.13495</v>
+        <v>-277784.01339</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-594626.43317</v>
+        <v>-532418.3515099999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-708810.73857</v>
+        <v>-725999.9863100001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-151279.29657</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-284760.8144</v>
+        <v>-309903.45353</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>406280.81376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>353064.1699099999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1760043.604</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>58982.87259000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>91400.45039999999</v>
+        <v>91460.07183000002</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>120203.44033</v>
+        <v>120205.59426</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>147443.43255</v>
+        <v>147481.32556</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>180653.25043</v>
+        <v>180976.85739</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>279875.1124</v>
+        <v>280723.95506</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>280525.71155</v>
+        <v>301767.89876</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>394231.28558</v>
+        <v>396201.0267100001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>412444.55431</v>
+        <v>412444.5543099999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>520654.96992</v>
+        <v>522154.81921</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>639122.14559</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>650216.0888400001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>823370.5550000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1464.89263</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1949.51362</v>
+        <v>2009.03662</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>2505.66329</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>4000.41575</v>
+        <v>4004.64961</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>2020.68797</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3969.5878</v>
+        <v>4427.67343</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4173.82918</v>
+        <v>4202.536950000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>14587.12204</v>
+        <v>14656.0354</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>9721.536119999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5913.14898</v>
+        <v>5929.28715</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>21558.93465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>21871.65557</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>30173.704</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>57517.97996</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>89450.93678000002</v>
+        <v>89451.03520999997</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>117697.77704</v>
+        <v>117699.93097</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>143443.0168</v>
+        <v>143476.67595</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>178632.56246</v>
+        <v>178956.16942</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>275905.5246000001</v>
+        <v>276296.28163</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>276351.88237</v>
+        <v>297565.36181</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>379644.16354</v>
+        <v>381544.99131</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>402723.01819</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>514741.82094</v>
+        <v>516225.5320600001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>617563.2109399999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>628344.4332700002</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>793196.851</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>101291.33656</v>
+        <v>101292.70525</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>111199.25001</v>
+        <v>111313.43408</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>660958.0567999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>179531.76803</v>
+        <v>179650.7046</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>199351.83779</v>
+        <v>199514.01121</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>430451.4893099999</v>
+        <v>431105.38622</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>330994.79406</v>
+        <v>347257.01696</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>688801.3612899998</v>
+        <v>694645.895</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>444187.0885</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>829829.0676099999</v>
+        <v>831299.3676799999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>576587.52046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>582612.16386</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>627625.903</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5256.739439999999</v>
@@ -2795,148 +2936,168 @@
         <v>19766.98477</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>26143.43802000001</v>
+        <v>26143.43802</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>32742.12012</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>40716.84629000002</v>
+        <v>41863.57943</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>43017.24684000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>55774.62826</v>
+        <v>55774.62825999999</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>52371.77876</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>46528.73631</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>46560.55069</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>57104.51</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>8430.60361</v>
+        <v>8431.972300000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>10848.33624</v>
+        <v>10923.00587</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>12836.91201</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>13681.62901</v>
+        <v>13682.7238</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>13056.95845</v>
+        <v>13088.58152</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11687.95395</v>
+        <v>11704.35847</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>27082.50779</v>
+        <v>27304.108</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26855.69383</v>
+        <v>28469.35347</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>21155.54831</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>24169.19317999999</v>
+        <v>24169.23198</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>28805.6784</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>28913.06064</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>20575.801</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>87603.99350999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>88636.35793</v>
+        <v>88675.87237000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>623989.1574</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>146083.15425</v>
+        <v>146200.99603</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>160151.44132</v>
+        <v>160281.99167</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>386021.4152399999</v>
+        <v>386658.90763</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>263195.43998</v>
+        <v>278089.32953</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>618928.42062</v>
+        <v>623159.29469</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>367256.91193</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>753288.0956699998</v>
+        <v>754758.3569400001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>501253.10575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>507138.55253</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>549945.5919999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>50665.98830000001</v>
+        <v>50589.75450999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>163780.6681</v>
+        <v>163717.02039</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-374345.07088</v>
+        <v>-374320.65399</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>120380.95458</v>
+        <v>120956.76899</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-97359.61879999998</v>
+        <v>-99421.07783999998</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-426951.51186</v>
+        <v>-428165.44455</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-645095.5156800001</v>
+        <v>-577907.46971</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1003380.81428</v>
+        <v>-1024444.8546</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-183021.8307599999</v>
+        <v>-183021.83076</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-593934.91209</v>
+        <v>-619048.002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>468815.43889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>420668.09489</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1564298.952</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>80368.00228</v>
@@ -2948,70 +3109,78 @@
         <v>127512.59073</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>138988.48051</v>
+        <v>139145.62521</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>161944.72728</v>
+        <v>162008.88621</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>188431.76583</v>
+        <v>189422.1878099999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>220795.90032</v>
+        <v>236825.45221</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>248246.11078</v>
+        <v>248347.22621</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>339342.0579599999</v>
+        <v>339342.05796</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>408503.39061</v>
+        <v>410359.58299</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>529421.4267599999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>540317.29198</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>339399.565</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-29702.01398000001</v>
+        <v>-29778.24776999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>57210.69730999998</v>
+        <v>57147.0496</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-501857.6616100001</v>
+        <v>-501833.24472</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-18607.52593000001</v>
+        <v>-18188.85621999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-259304.34608</v>
+        <v>-261429.96405</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-615383.2776899999</v>
+        <v>-617587.63236</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-865891.4160000001</v>
+        <v>-814732.92192</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1251626.92506</v>
+        <v>-1272792.08081</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-522363.8887200001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1002438.3027</v>
+        <v>-1029407.58499</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-60605.98787000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-119649.19709</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1903698.517</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>17393</v>
+        <v>17394</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>18471</v>
+        <v>18472</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>19243</v>
+        <v>19247</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>19776</v>
+        <v>19797</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>20785</v>
+        <v>20823</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>21855</v>
+        <v>21937</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>23163</v>
+        <v>23383</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>25132</v>
+        <v>25265</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>27611</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>29003</v>
+        <v>30410</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>30810</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>33600</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>35368</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>